--- a/survey.xlsx
+++ b/survey.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csqsiew/Desktop/netemo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805EF743-582C-834B-ACC7-9FE1EE5DB980}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25640" windowHeight="16980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-26640" yWindow="460" windowWidth="25640" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -148,9 +154,6 @@
     <t>250px</t>
   </si>
   <si>
-    <t>You may now close this window.</t>
-  </si>
-  <si>
     <t>If you want to proceed please indicate your consent by clicking the checkbox below.</t>
   </si>
   <si>
@@ -244,9 +247,6 @@
     <t>x10</t>
   </si>
   <si>
-    <t>Networks are everywhere. Emojis are everywhere. Why isn't there a network emoji? With any luck, there will be! This is a survey designed to collect data about what you think the prototypical network looks like and we'll use that data to submit an emoji design to Unicode!</t>
-  </si>
-  <si>
     <t>The Network Emoji Survey</t>
   </si>
   <si>
@@ -259,9 +259,6 @@
     <t>Brennan Klein - klein.br@northeastern.edu</t>
   </si>
   <si>
-    <t>You will be shown 10 pictures of networks. Your job is to simply decide if the image looks like a prototypical network. There are no right or wrong answers!</t>
-  </si>
-  <si>
     <t>test.png</t>
   </si>
   <si>
@@ -271,16 +268,31 @@
     <t>400px</t>
   </si>
   <si>
-    <t>Not prototypical at all ------------------ Very prototypical</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>120px</t>
+  </si>
+  <si>
+    <t>Would this network make a good emoji?</t>
+  </si>
+  <si>
+    <t>You will be shown 10 pictures of networks. Your job is to simply decide if the image will make a good network emoji. There are no right or wrong answers!</t>
+  </si>
+  <si>
+    <t>Simply refresh the page if you would like to provide more ratings!</t>
+  </si>
+  <si>
+    <t>Strongly Disagree --------------------- Strongly Agree</t>
+  </si>
+  <si>
+    <t>Networks are everywhere. Emojis are everywhere. Why isnt there a network emoji? With any luck, there will be! This is a survey designed to collect data about what you think would make an awesome network emoji and we will use that data to submit an emoji design to Unicode!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1298,6 +1310,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1622,16 +1642,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="A1:P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1684,12 +1704,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1737,12 +1757,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1775,10 +1795,10 @@
         <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>16</v>
@@ -1787,12 +1807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1837,12 +1857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1887,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1937,12 +1957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1987,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2037,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2143,12 +2163,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2193,12 +2213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2243,279 +2263,329 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="N16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I18" t="s">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J18" t="s">
         <v>9</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K18" t="s">
         <v>10</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L18" t="s">
         <v>11</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M18" t="s">
         <v>12</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N18" t="s">
         <v>13</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O18" t="s">
         <v>14</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P18" t="s">
         <v>15</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1</v>
+      <c r="O21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>16</v>
@@ -2530,193 +2600,143 @@
         <v>16</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
       </c>
       <c r="P22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="1" t="s">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" t="s">
-        <v>12</v>
-      </c>
       <c r="N26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2730,16 +2750,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="A1:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2792,12 +2812,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2830,10 +2850,10 @@
         <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -2842,12 +2862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -2856,10 +2876,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -2880,7 +2900,7 @@
         <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>16</v>
@@ -2892,12 +2912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -2930,7 +2950,7 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>41</v>
@@ -2942,12 +2962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -2980,10 +3000,10 @@
         <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>16</v>
@@ -2992,12 +3012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -3006,10 +3026,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -3030,7 +3050,7 @@
         <v>29</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>16</v>
@@ -3042,12 +3062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -3080,7 +3100,7 @@
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>41</v>
@@ -3092,12 +3112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -3130,10 +3150,10 @@
         <v>16</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>16</v>
@@ -3142,12 +3162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -3156,10 +3176,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -3180,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>16</v>
@@ -3192,12 +3212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -3230,7 +3250,7 @@
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>41</v>
@@ -3244,12 +3264,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -3282,10 +3302,10 @@
         <v>16</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>16</v>
@@ -3294,12 +3314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -3308,10 +3328,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -3332,7 +3352,7 @@
         <v>29</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>16</v>
@@ -3344,12 +3364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -3382,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>41</v>
@@ -3396,12 +3416,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -3434,10 +3454,10 @@
         <v>16</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>16</v>
@@ -3446,12 +3466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -3460,10 +3480,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
@@ -3484,7 +3504,7 @@
         <v>29</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>16</v>
@@ -3496,12 +3516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -3534,7 +3554,7 @@
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>41</v>
@@ -3548,12 +3568,12 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C17" s="1">
         <v>6</v>
@@ -3586,10 +3606,10 @@
         <v>16</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>16</v>
@@ -3598,12 +3618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1">
         <v>6</v>
@@ -3612,10 +3632,10 @@
         <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
@@ -3636,7 +3656,7 @@
         <v>29</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>16</v>
@@ -3648,12 +3668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -3686,7 +3706,7 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>41</v>
@@ -3700,12 +3720,12 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
@@ -3738,10 +3758,10 @@
         <v>16</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>16</v>
@@ -3750,12 +3770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1">
         <v>7</v>
@@ -3764,10 +3784,10 @@
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
@@ -3788,7 +3808,7 @@
         <v>29</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>16</v>
@@ -3800,12 +3820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
@@ -3838,7 +3858,7 @@
         <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>41</v>
@@ -3852,12 +3872,12 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1">
         <v>8</v>
@@ -3890,10 +3910,10 @@
         <v>16</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>16</v>
@@ -3902,12 +3922,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1">
         <v>8</v>
@@ -3916,10 +3936,10 @@
         <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>16</v>
@@ -3940,7 +3960,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>16</v>
@@ -3952,12 +3972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1">
         <v>8</v>
@@ -3990,7 +4010,7 @@
         <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>41</v>
@@ -4004,12 +4024,12 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1">
         <v>9</v>
@@ -4042,10 +4062,10 @@
         <v>16</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>16</v>
@@ -4054,12 +4074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1">
         <v>9</v>
@@ -4068,10 +4088,10 @@
         <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>16</v>
@@ -4092,7 +4112,7 @@
         <v>29</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>16</v>
@@ -4104,12 +4124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>9</v>
@@ -4142,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>41</v>
@@ -4156,12 +4176,12 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -4194,10 +4214,10 @@
         <v>16</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>16</v>
@@ -4206,12 +4226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -4220,10 +4240,10 @@
         <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>16</v>
@@ -4244,7 +4264,7 @@
         <v>29</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>16</v>
@@ -4256,12 +4276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -4294,7 +4314,7 @@
         <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>41</v>
